--- a/examcom/schema/mysql/mhr_ninka.xlsx
+++ b/examcom/schema/mysql/mhr_ninka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35476BA7-CA4D-4F22-BD55-449D81EDEC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F075CB3E-0F26-48CE-A9E3-CD038059ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
   </bookViews>
@@ -541,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8705F91-9DA9-4C29-9992-1C4748E4ABCA}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>

--- a/examcom/schema/mysql/mhr_ninka.xlsx
+++ b/examcom/schema/mysql/mhr_ninka.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F075CB3E-0F26-48CE-A9E3-CD038059ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F075CB3E-0F26-48CE-A9E3-CD038059ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA66575-3FDA-46EB-956A-4EF7F688E35F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.mhr_ninka" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">emarf.mhr_ninka!$A$2:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">emarf.mhr_ninka!$A$2:$K$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">emarf.mhr_ninka!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>0</t>
   </si>
@@ -48,9 +46,6 @@
     <t>« NULL »</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>.+</t>
   </si>
   <si>
@@ -88,6 +83,10 @@
   </si>
   <si>
     <t>mysql/emarf : 2024/12/18 20:25:35</t>
+  </si>
+  <si>
+    <t>D0000</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -539,105 +538,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8705F91-9DA9-4C29-9992-1C4748E4ABCA}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="A3" sqref="A3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45644.844895833332</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>45644.844895833332</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45644.844895833332</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K3" xr:uid="{A80E7E1C-8CD5-479C-9A43-63D1D83DDF3B}"/>
+  <autoFilter ref="A2:K4" xr:uid="{A80E7E1C-8CD5-479C-9A43-63D1D83DDF3B}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="263" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/examcom/schema/mysql/mhr_ninka.xlsx
+++ b/examcom/schema/mysql/mhr_ninka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{F075CB3E-0F26-48CE-A9E3-CD038059ED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA66575-3FDA-46EB-956A-4EF7F688E35F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66148B-E463-47C5-B0AA-E278A7EF8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.mhr_ninka" sheetId="2" r:id="rId1"/>
@@ -619,15 +619,11 @@
       <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="3">
         <v>0</v>
       </c>
@@ -654,15 +650,11 @@
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="3">
         <v>0</v>
       </c>
@@ -689,15 +681,11 @@
       <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="3">
         <v>0</v>
       </c>
@@ -724,15 +712,11 @@
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="3">
         <v>0</v>
       </c>
@@ -759,15 +743,11 @@
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="3">
         <v>0</v>
       </c>
@@ -794,15 +774,11 @@
       <c r="F8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -829,15 +805,11 @@
       <c r="F9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -864,15 +836,11 @@
       <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -899,15 +867,11 @@
       <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <v>45644.844895833332</v>
-      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="3">
         <v>0</v>
       </c>

--- a/examcom/schema/mysql/mhr_ninka.xlsx
+++ b/examcom/schema/mysql/mhr_ninka.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66148B-E463-47C5-B0AA-E278A7EF8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047192A-73B2-484D-B11C-3AC2449C7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
   </bookViews>
@@ -544,28 +544,28 @@
       <selection activeCell="A3" sqref="A3:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>0</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>0</v>
       </c>

--- a/examcom/schema/mysql/mhr_ninka.xlsx
+++ b/examcom/schema/mysql/mhr_ninka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047192A-73B2-484D-B11C-3AC2449C7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463D18E0-0F90-49E1-B48C-DA366DEB9297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D07095F5-A0C8-4F31-84F2-F9F72215365B}"/>
   </bookViews>
